--- a/yw_react_fe/yw-fe/testFiles/yw_reference_tables.xlsx
+++ b/yw_react_fe/yw-fe/testFiles/yw_reference_tables.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RichardLouden\Documents\Project-work\YW\Sludge-modelling\Modelling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BC8CAF-F05F-44FC-AD40-30EF32723B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FFBF54-7B13-41F1-B5A1-4B7169800FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="-1404" windowWidth="23232" windowHeight="12552" xr2:uid="{455B0008-4095-42C4-8FA9-2EDAC3BC0A90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{455B0008-4095-42C4-8FA9-2EDAC3BC0A90}"/>
   </bookViews>
   <sheets>
-    <sheet name="Distance" sheetId="5" r:id="rId1"/>
-    <sheet name="Transport-cost" sheetId="6" r:id="rId2"/>
-    <sheet name="Chemicals" sheetId="1" r:id="rId3"/>
-    <sheet name="Electricity-use" sheetId="2" r:id="rId4"/>
-    <sheet name="Electricity-generation" sheetId="7" r:id="rId5"/>
-    <sheet name="Recycling" sheetId="8" r:id="rId6"/>
-    <sheet name="Temp" sheetId="3" r:id="rId7"/>
-    <sheet name="Liquors" sheetId="4" r:id="rId8"/>
-    <sheet name="Third-party" sheetId="9" r:id="rId9"/>
+    <sheet name="Volumes" sheetId="10" r:id="rId1"/>
+    <sheet name="Distance" sheetId="5" r:id="rId2"/>
+    <sheet name="Transport-cost" sheetId="6" r:id="rId3"/>
+    <sheet name="Chemicals" sheetId="1" r:id="rId4"/>
+    <sheet name="Electricity-use" sheetId="2" r:id="rId5"/>
+    <sheet name="Electricity-generation" sheetId="7" r:id="rId6"/>
+    <sheet name="Recycling" sheetId="8" r:id="rId7"/>
+    <sheet name="Temp" sheetId="3" r:id="rId8"/>
+    <sheet name="Liquors" sheetId="4" r:id="rId9"/>
+    <sheet name="Third-party" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="59">
   <si>
     <t>HAWES/STW</t>
   </si>
@@ -85,58 +86,10 @@
     <t>NORTHUMBIRAN WATER</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
     <t>TP</t>
   </si>
   <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Chemical</t>
-  </si>
-  <si>
-    <t>Indigenous</t>
-  </si>
-  <si>
-    <t>Unthickened</t>
-  </si>
-  <si>
-    <t>Thickened</t>
-  </si>
-  <si>
-    <t>Cake</t>
-  </si>
-  <si>
     <t>Ferric</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>%DS</t>
-  </si>
-  <si>
-    <t>Max_Vol</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>Liquor</t>
-  </si>
-  <si>
-    <t>Applied</t>
   </si>
   <si>
     <t>HeatingFuel</t>
@@ -145,55 +98,127 @@
     <t>AntiFoam</t>
   </si>
   <si>
-    <t>Cost</t>
+    <t>site</t>
   </si>
   <si>
-    <t>Dose</t>
+    <t>id</t>
   </si>
   <si>
-    <t>Consumption</t>
+    <t>rank</t>
   </si>
   <si>
-    <t>Capacity</t>
+    <t>max_vol</t>
   </si>
   <si>
-    <t>RR</t>
+    <t>perc_ds</t>
   </si>
   <si>
-    <t>RV</t>
+    <t>from</t>
   </si>
   <si>
-    <t>EV</t>
+    <t>id_from</t>
   </si>
   <si>
-    <t>Kwh/TDS</t>
+    <t>st_from</t>
   </si>
   <si>
-    <t>Active_Hours</t>
+    <t>st</t>
   </si>
   <si>
-    <t>Route</t>
+    <t>rank_from</t>
   </si>
   <si>
-    <t>%Recycled</t>
+    <t>to</t>
   </si>
   <si>
-    <t>%Destroyed</t>
+    <t>distance</t>
   </si>
   <si>
-    <t>Max</t>
+    <t>id_to</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>st_to</t>
   </si>
   <si>
-    <t>Available</t>
+    <t>rank_to</t>
   </si>
   <si>
-    <t>Availability</t>
+    <t>cost</t>
   </si>
   <si>
-    <t>TP_Cost</t>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>indigenous</t>
+  </si>
+  <si>
+    <t>unthickened</t>
+  </si>
+  <si>
+    <t>thickened</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>tp_cost</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>active_hours</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>rv</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>kwh_tds</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>perc_recycled</t>
+  </si>
+  <si>
+    <t>perc_destroyed</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>liquor</t>
+  </si>
+  <si>
+    <t>applied</t>
   </si>
 </sst>
 </file>
@@ -544,285 +569,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D7DE32-D732-4C1B-94FD-819E875DA5A5}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8528B0-FFA9-4A90-988D-6EAEC0010E0D}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
+      <c r="F2">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F3">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0.02</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>102</v>
-      </c>
-      <c r="K2">
-        <v>117</v>
-      </c>
-      <c r="L2">
-        <v>42</v>
-      </c>
-      <c r="M2">
-        <v>132</v>
-      </c>
-      <c r="N2">
-        <v>126</v>
-      </c>
-      <c r="O2">
-        <v>90</v>
-      </c>
-      <c r="P2">
-        <v>58</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F4">
         <v>28</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>67</v>
-      </c>
-      <c r="K3">
-        <v>36</v>
-      </c>
-      <c r="L3">
-        <v>99</v>
-      </c>
-      <c r="M3">
-        <v>15</v>
-      </c>
-      <c r="N3">
-        <v>72</v>
-      </c>
-      <c r="O3">
-        <v>120</v>
-      </c>
-      <c r="P3">
-        <v>85</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G4">
+      <c r="F5">
         <v>28</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>69</v>
-      </c>
-      <c r="M4">
-        <v>92</v>
-      </c>
-      <c r="N4">
-        <v>18.7</v>
-      </c>
-      <c r="O4">
-        <v>54</v>
-      </c>
-      <c r="P4">
-        <v>41</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G5">
-        <v>28</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>84</v>
-      </c>
-      <c r="M5">
-        <v>57</v>
-      </c>
-      <c r="N5">
-        <v>37</v>
-      </c>
-      <c r="O5">
-        <v>85</v>
-      </c>
-      <c r="P5">
-        <v>58</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -836,46 +695,13 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="F6">
-        <v>0.22</v>
-      </c>
-      <c r="G6">
         <v>21</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>59</v>
-      </c>
-      <c r="O6">
-        <v>84</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -889,46 +715,13 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0.18</v>
       </c>
       <c r="F7">
-        <v>0.18</v>
-      </c>
-      <c r="G7">
         <v>14</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>85</v>
-      </c>
-      <c r="O7">
-        <v>143</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -947,41 +740,8 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1000,41 +760,8 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1048,46 +775,13 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
-      </c>
-      <c r="G10">
         <v>28</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>64</v>
-      </c>
-      <c r="O10">
-        <v>43</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1106,37 +800,243 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000In Confidence&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ADBD12-0DE1-42EB-8D5A-84BF08F8492F}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
@@ -1150,500 +1050,1005 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F506DF01-8E18-4F63-91FB-108F3B8AC794}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D7DE32-D732-4C1B-94FD-819E875DA5A5}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>474.99999999999994</v>
-      </c>
-      <c r="H2">
-        <v>474.99999999999994</v>
-      </c>
-      <c r="I2">
-        <v>375</v>
-      </c>
-      <c r="J2">
-        <v>474.99999999999994</v>
-      </c>
-      <c r="K2">
-        <v>474.99999999999994</v>
-      </c>
-      <c r="L2">
-        <v>474.99999999999994</v>
-      </c>
-      <c r="M2">
-        <v>474.99999999999994</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>380</v>
-      </c>
-      <c r="H3">
-        <v>300</v>
-      </c>
-      <c r="I3">
-        <v>380</v>
-      </c>
-      <c r="J3">
-        <v>300</v>
-      </c>
-      <c r="K3">
-        <v>380</v>
-      </c>
-      <c r="L3">
-        <v>380</v>
-      </c>
-      <c r="M3">
-        <v>380</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>237.49999999999997</v>
-      </c>
-      <c r="J4">
-        <v>237.49999999999997</v>
-      </c>
-      <c r="K4">
-        <v>187.5</v>
-      </c>
-      <c r="L4">
-        <v>237.49999999999997</v>
-      </c>
-      <c r="M4">
-        <v>237.49999999999997</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>211.11111111111114</v>
-      </c>
-      <c r="J5">
-        <v>211.11111111111114</v>
-      </c>
-      <c r="K5">
-        <v>166.66666666666669</v>
-      </c>
-      <c r="L5">
-        <v>211.11111111111114</v>
-      </c>
-      <c r="M5">
-        <v>211.11111111111114</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>52</v>
-      </c>
-      <c r="L6">
-        <v>52</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>51.91</v>
-      </c>
-      <c r="L7">
-        <v>83.91</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>40.450000000000003</v>
-      </c>
-      <c r="L10">
-        <v>30.32</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1656,11 +2061,1019 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F506DF01-8E18-4F63-91FB-108F3B8AC794}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>474.99999999999898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>474.99999999999898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>237.49999999999901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>211.111111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>474.99999999999898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>237.49999999999901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>211.111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>474.99999999999898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>166.666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>51.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>40.450000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>474.99999999999898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>237.49999999999901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>211.111111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>83.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>474.99999999999898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>237.49999999999901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>211.111111111111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000In Confidence&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8867DB56-66B6-4043-902D-25E00C1E0CD1}">
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,34 +3092,34 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2032,7 +3445,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -2382,7 +3795,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -2732,7 +4145,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -3082,7 +4495,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -3123,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3158,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3193,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3228,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3263,7 +4676,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3298,7 +4711,7 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3333,7 +4746,7 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F48">
         <v>0.25</v>
@@ -3368,7 +4781,7 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3403,7 +4816,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3432,13 +4845,13 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
         <v>17</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51" t="s">
-        <v>33</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3473,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3508,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3543,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3578,7 +4991,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3613,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3648,7 +5061,7 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3683,7 +5096,7 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F58">
         <v>10</v>
@@ -3718,7 +5131,7 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F59">
         <v>15</v>
@@ -3753,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3782,13 +5195,13 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D61">
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3823,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3858,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3893,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3928,7 +5341,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3963,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3998,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4033,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4068,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <v>30</v>
@@ -4103,7 +5516,7 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4132,13 +5545,13 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4168,12 +5581,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7197DDFF-8418-4195-8FC5-5A1A7F82FAC7}">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,34 +5603,34 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4543,7 +5956,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -4893,7 +6306,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -5243,7 +6656,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -5593,7 +7006,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -5943,7 +7356,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -5979,12 +7392,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DC719B-D45D-4B03-9B64-BE696951DC6E}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6003,34 +7416,34 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6356,7 +7769,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -6380,1021 +7793,6 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000In Confidence&amp;1#</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76CECD-856D-4B9B-99F0-25D145A8C860}">
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.22</v>
-      </c>
-      <c r="G6">
-        <v>0.01</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.22</v>
-      </c>
-      <c r="G7">
-        <v>0.01</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.24</v>
-      </c>
-      <c r="G8">
-        <v>0.4</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>30</v>
-      </c>
-      <c r="J8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.26</v>
-      </c>
-      <c r="G9">
-        <v>0.6</v>
-      </c>
-      <c r="H9">
-        <v>150</v>
-      </c>
-      <c r="I9">
-        <v>35</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.22</v>
-      </c>
-      <c r="G10">
-        <v>0.01</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>30</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>30</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>30</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>30</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>30</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.22</v>
-      </c>
-      <c r="G16">
-        <v>0.01</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>30</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.22</v>
-      </c>
-      <c r="G17">
-        <v>0.01</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>30</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.24</v>
-      </c>
-      <c r="G18">
-        <v>0.4</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18">
-        <v>40</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.26</v>
-      </c>
-      <c r="G19">
-        <v>0.6</v>
-      </c>
-      <c r="H19">
-        <v>150</v>
-      </c>
-      <c r="I19">
-        <v>45</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.22</v>
-      </c>
-      <c r="G20">
-        <v>0.01</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>30</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>30</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>0.22</v>
-      </c>
-      <c r="G26">
-        <v>0.01</v>
-      </c>
-      <c r="H26">
-        <v>100</v>
-      </c>
-      <c r="I26">
-        <v>80</v>
-      </c>
-      <c r="J26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>0.22</v>
-      </c>
-      <c r="G27">
-        <v>0.01</v>
-      </c>
-      <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="I27">
-        <v>80</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>0.24</v>
-      </c>
-      <c r="G28">
-        <v>0.4</v>
-      </c>
-      <c r="H28">
-        <v>100</v>
-      </c>
-      <c r="I28">
-        <v>80</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>0.26</v>
-      </c>
-      <c r="G29">
-        <v>0.6</v>
-      </c>
-      <c r="H29">
-        <v>100</v>
-      </c>
-      <c r="I29">
-        <v>100</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>0.22</v>
-      </c>
-      <c r="G30">
-        <v>0.01</v>
-      </c>
-      <c r="H30">
-        <v>100</v>
-      </c>
-      <c r="I30">
-        <v>80</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
         <v>0</v>
       </c>
     </row>
@@ -7408,11 +7806,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D76CECD-856D-4B9B-99F0-25D145A8C860}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.22</v>
+      </c>
+      <c r="G6">
+        <v>0.01</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.22</v>
+      </c>
+      <c r="G7">
+        <v>0.01</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.24</v>
+      </c>
+      <c r="G8">
+        <v>0.4</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.26</v>
+      </c>
+      <c r="G9">
+        <v>0.6</v>
+      </c>
+      <c r="H9">
+        <v>150</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.22</v>
+      </c>
+      <c r="G10">
+        <v>0.01</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.22</v>
+      </c>
+      <c r="G16">
+        <v>0.01</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.22</v>
+      </c>
+      <c r="G17">
+        <v>0.01</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.24</v>
+      </c>
+      <c r="G18">
+        <v>0.4</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.26</v>
+      </c>
+      <c r="G19">
+        <v>0.6</v>
+      </c>
+      <c r="H19">
+        <v>150</v>
+      </c>
+      <c r="I19">
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.22</v>
+      </c>
+      <c r="G20">
+        <v>0.01</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>0.22</v>
+      </c>
+      <c r="G26">
+        <v>0.01</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>80</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0.22</v>
+      </c>
+      <c r="G27">
+        <v>0.01</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>80</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0.24</v>
+      </c>
+      <c r="G28">
+        <v>0.4</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>80</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>0.26</v>
+      </c>
+      <c r="G29">
+        <v>0.6</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0.22</v>
+      </c>
+      <c r="G30">
+        <v>0.01</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>80</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000In Confidence&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB786A0-05FF-42F2-BABF-08D4EB520F93}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7428,31 +8841,31 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7751,7 +9164,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -8071,7 +9484,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -8104,12 +9517,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F115E-AA66-4AD8-AF69-303FCB72385A}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8125,34 +9538,34 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8478,7 +9891,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -8828,7 +10241,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -8852,245 +10265,6 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000In Confidence&amp;1#</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30ADBD12-0DE1-42EB-8D5A-84BF08F8492F}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
         <v>0</v>
       </c>
     </row>
